--- a/STGGame/Assets/AssetsEditor/编号说明.xlsx
+++ b/STGGame/Assets/AssetsEditor/编号说明.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="10005" windowWidth="25605" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="3920" yWindow="13020" windowWidth="34000" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -161,15 +161,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>大类(01:场景特效,02:技能特效,03:模型特效,04:UI特效)</t>
+    <t>大类(01:普通特效,02:技能特效,03:模型特效,04:UI特效,05:场景特效)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -300,20 +300,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -641,17 +641,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="5" width="11" style="1"/>
-    <col min="18" max="18" width="13.125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:18">
@@ -713,20 +713,20 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8" t="s">
+      <c r="K3" s="9"/>
+      <c r="L3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="s">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="4:18">
       <c r="D4" s="1" t="s">
@@ -735,22 +735,22 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8" t="s">
+      <c r="K4" s="9"/>
+      <c r="L4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
+      <c r="M4" s="9"/>
+      <c r="N4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8" t="s">
+      <c r="O4" s="9"/>
+      <c r="P4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="4:18">
       <c r="D5" s="1" t="s">
@@ -759,22 +759,22 @@
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8" t="s">
+      <c r="K5" s="9"/>
+      <c r="L5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8" t="s">
+      <c r="M5" s="9"/>
+      <c r="N5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8" t="s">
+      <c r="O5" s="9"/>
+      <c r="P5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="9"/>
+      <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="4:18">
       <c r="D6" s="1" t="s">
@@ -783,22 +783,22 @@
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8" t="s">
+      <c r="M6" s="9"/>
+      <c r="N6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8" t="s">
+      <c r="O6" s="9"/>
+      <c r="P6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="4:18">
       <c r="D7" s="1" t="s">
@@ -807,20 +807,20 @@
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="s">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="4:18">
       <c r="D8" s="1" t="s">
@@ -829,28 +829,35 @@
       <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="10" t="s">
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="8" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="N7:Q7"/>
     <mergeCell ref="N4:O4"/>
@@ -862,16 +869,9 @@
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
